--- a/biology/Botanique/Forêt_Sacrée_de_Wêwêré/Forêt_Sacrée_de_Wêwêré.xlsx
+++ b/biology/Botanique/Forêt_Sacrée_de_Wêwêré/Forêt_Sacrée_de_Wêwêré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_Sacr%C3%A9e_de_W%C3%AAw%C3%AAr%C3%A9</t>
+          <t>Forêt_Sacrée_de_Wêwêré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt sarée Wêwêré est un îlot forestier, situé dans la commune de Bembéréké, dans le département du Borgou, au Nord-Est du Bénin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_Sacr%C3%A9e_de_W%C3%AAw%C3%AAr%C3%A9</t>
+          <t>Forêt_Sacrée_de_Wêwêré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-La forêt sacrée de Wêwêré est située à l'ouest de la commune de Bembèrèkè[1], dans le département de le borgou, Nord-Est du Bénin[2].
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt sacrée de Wêwêré est située à l'ouest de la commune de Bembèrèkè, dans le département de le borgou, Nord-Est du Bénin.
 </t>
         </is>
       </c>
@@ -525,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_Sacr%C3%A9e_de_W%C3%AAw%C3%AAr%C3%A9</t>
+          <t>Forêt_Sacrée_de_Wêwêré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +560,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt sacrée de Wêwêré tire son nom de la rivière qui la traverse ainsi qu'à la divinité « Wèwèré », dont l'esprit est logé dans un Iroko situé au cœur de la forêt sacrée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt sacrée de Wêwêré tire son nom de la rivière qui la traverse ainsi qu'à la divinité « Wèwèré », dont l'esprit est logé dans un Iroko situé au cœur de la forêt sacrée.
 </t>
         </is>
       </c>
@@ -556,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_Sacr%C3%A9e_de_W%C3%AAw%C3%AAr%C3%A9</t>
+          <t>Forêt_Sacrée_de_Wêwêré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +593,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, l'ARMP statut en faveur du FNEC pour la construction des ouvrages de canalisation et des latrines dans la forêt[4].
-Le 20 mai 2021,Ousmane Sanni Gamia, à l'epoque, deuxième adjoint au maire de la ville de Bembéréké, lance le projet pilote d’appui au développement des activités écotouristiques dans la commune et du projet d’appui à la restauration et gestion durable des écosystèmes forestiers autour de la forêt classée des « Trois Rivières » PRGD-EF3R. Avec l'appui financié du FNEC, le projet a pour objectif, la réhabilitation de la forêt classée de wèwèré ainsi que le develeppement du secteur touristique de cette commune[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, l'ARMP statut en faveur du FNEC pour la construction des ouvrages de canalisation et des latrines dans la forêt.
+Le 20 mai 2021,Ousmane Sanni Gamia, à l'epoque, deuxième adjoint au maire de la ville de Bembéréké, lance le projet pilote d’appui au développement des activités écotouristiques dans la commune et du projet d’appui à la restauration et gestion durable des écosystèmes forestiers autour de la forêt classée des « Trois Rivières » PRGD-EF3R. Avec l'appui financié du FNEC, le projet a pour objectif, la réhabilitation de la forêt classée de wèwèré ainsi que le develeppement du secteur touristique de cette commune.
 </t>
         </is>
       </c>
